--- a/Daisy-xls/ResearchPages/Spanish/research-uterine-cancer - Spanish.xlsx
+++ b/Daisy-xls/ResearchPages/Spanish/research-uterine-cancer - Spanish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>URL</t>
   </si>
@@ -36,7 +36,13 @@
     <t>Instantánea del cáncer de endometrio</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/cancer/instantaneas/endometrio</t>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/endometrio</t>
   </si>
 </sst>
 </file>
@@ -60,12 +66,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF666666"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -73,19 +73,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,9 +114,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -125,28 +125,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -450,69 +455,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="3"/>
+    <col min="1" max="1" width="9.28515625" style="3"/>
+    <col min="2" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="44.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>725775</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12">
         <v>41948</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="H2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -526,7 +528,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -538,7 +540,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
